--- a/SuRGE_Sharepoint/data/NAR/CH4_057_Slatersville_Reservoir/dataSheets/surgeData057.xlsx
+++ b/SuRGE_Sharepoint/data/NAR/CH4_057_Slatersville_Reservoir/dataSheets/surgeData057.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/NAR/CH4_057_Slatersville_Reservoir/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/NAR/CH4_057_Slatersville_Reservoir/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="8_{5907395E-BB7C-4CAB-AFE2-3BED60C5F757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23CD4BBC-C596-4510-8547-AD75CD7B8CC9}"/>
+  <xr:revisionPtr revIDLastSave="515" documentId="8_{5907395E-BB7C-4CAB-AFE2-3BED60C5F757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BB2CD7D-99F1-47A0-A1C6-CC5BA917EF4E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1418,14 +1418,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1463,7 +1459,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1569,7 +1565,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1711,7 +1707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1722,8 +1718,8 @@
   <dimension ref="A1:BZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:C1"/>
+      <pane xSplit="2" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT17" sqref="BT17:BV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2200,15 +2196,6 @@
       <c r="AI3">
         <v>1.42</v>
       </c>
-      <c r="BT3" t="s">
-        <v>224</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>225</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>226</v>
-      </c>
       <c r="BW3">
         <v>2.13</v>
       </c>
@@ -3547,7 +3534,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>182</v>
       </c>
@@ -3644,8 +3631,17 @@
       <c r="BE17">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BT17" t="s">
+        <v>224</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>225</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>182</v>
       </c>
@@ -3659,7 +3655,7 @@
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>182</v>
       </c>
@@ -3670,7 +3666,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>182</v>
       </c>
@@ -4865,11 +4861,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5340,7 +5331,21 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -5382,24 +5387,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A800F3D5-C964-475C-8D1B-2D2EC8C0F16A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5422,7 +5410,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5434,12 +5438,4 @@
     <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>